--- a/src/main/resources/com/relative/QuskyOro/Matrices/PerfilClientesInternos.xlsx
+++ b/src/main/resources/com/relative/QuskyOro/Matrices/PerfilClientesInternos.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\QuskiBre\Matrices\Matrices v2\Produccion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\QuskyOro\src\main\resources\com\relative\QuskyOro\Matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CD7728-3A8C-41E5-A416-580A2D4A0C9E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E8EECE-0C82-4997-8A56-6803F965960A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -90,9 +89,6 @@
     <t>GrupoPerfilClienteInterno</t>
   </si>
   <si>
-    <t>com.relative.brecreditosnuevos.objetosnegocio.Cliente,com.relative.brecreditosnuevos.objetosnegocio.VariablesNegocio</t>
-  </si>
-  <si>
     <t>cliente.setGrupoInterno(Integer.valueOf($param));</t>
   </si>
   <si>
@@ -115,6 +111,9 @@
   </si>
   <si>
     <t>cliente.getTiempoCancelacion()&lt;=$param</t>
+  </si>
+  <si>
+    <t>com.relative.QuskyOro.ObjetosNegocio.Cliente,com.relative.QuskyOro.ObjetosNegocio.VariablesNegocio</t>
   </si>
 </sst>
 </file>
@@ -887,7 +886,7 @@
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:F6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -925,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="2"/>
@@ -985,22 +984,22 @@
       <c r="A7" s="1"/>
       <c r="B7" s="7"/>
       <c r="C7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="E7" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>16</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1011,16 +1010,16 @@
         <v>8</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>14</v>

--- a/src/main/resources/com/relative/QuskyOro/Matrices/PerfilClientesInternos.xlsx
+++ b/src/main/resources/com/relative/QuskyOro/Matrices/PerfilClientesInternos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\extre\Documents\proyectos\proyectos drools\QuskyOro\src\main\resources\com\relative\QuskyOro\Matrices\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E8EECE-0C82-4997-8A56-6803F965960A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B58AA3E1-7416-49FF-B9F8-077A55D8B99F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="984" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,7 +113,7 @@
     <t>cliente.getTiempoCancelacion()&lt;=$param</t>
   </si>
   <si>
-    <t>com.relative.QuskyOro.ObjetosNegocio.Cliente,com.relative.QuskyOro.ObjetosNegocio.VariablesNegocio</t>
+    <t>com.relative.QuskiOro.ObjetosNegocio.Cliente,com.relative.QuskiOro.ObjetosNegocio.VariablesNegocio</t>
   </si>
 </sst>
 </file>
@@ -886,7 +886,7 @@
   <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="71" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
